--- a/HCHEv2/Excel/StudentInfo.xlsx
+++ b/HCHEv2/Excel/StudentInfo.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>报名学生信息(2016-11-08)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+  <si>
+    <t>报名学生信息(2016-11-14)</t>
   </si>
   <si>
     <t xml:space="preserve">姓名 </t>
@@ -75,49 +75,94 @@
     <t>赵科</t>
   </si>
   <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>612301198810203020</t>
+  </si>
+  <si>
+    <t>86203102</t>
+  </si>
+  <si>
+    <t>普通高中生</t>
+  </si>
+  <si>
+    <t>理科</t>
+  </si>
+  <si>
+    <t>汉中市</t>
+  </si>
+  <si>
+    <t>城固一中</t>
+  </si>
+  <si>
+    <t>18700181972</t>
+  </si>
+  <si>
+    <t>13020301020</t>
+  </si>
+  <si>
+    <t>13610321255</t>
+  </si>
+  <si>
+    <t>0916-7563210</t>
+  </si>
+  <si>
+    <t>汽车技术服务与营销</t>
+  </si>
+  <si>
+    <t>陕西省汉中市城固县聚源镇崔家山2组2号</t>
+  </si>
+  <si>
+    <t>723005</t>
+  </si>
+  <si>
+    <t>李子涵</t>
+  </si>
+  <si>
     <t>女</t>
   </si>
   <si>
-    <t>522301198610282418</t>
-  </si>
-  <si>
-    <t>620320102</t>
-  </si>
-  <si>
-    <t>普通高中生</t>
+    <t>301020106321320102</t>
+  </si>
+  <si>
+    <t>63203120</t>
+  </si>
+  <si>
+    <t>三校生</t>
   </si>
   <si>
     <t>文科</t>
   </si>
   <si>
-    <t>咸阳</t>
-  </si>
-  <si>
-    <t>咸阳三洋中学</t>
-  </si>
-  <si>
-    <t>18098856545</t>
-  </si>
-  <si>
-    <t>13020201020</t>
-  </si>
-  <si>
-    <t>13210101010</t>
-  </si>
-  <si>
-    <t>0916-2030201</t>
-  </si>
-  <si>
-    <t>汽车技术服务于营销</t>
-  </si>
-  <si>
-    <t>陕西省咸阳市长武县聚源镇上河村8组8号</t>
-  </si>
-  <si>
-    <t>710002</t>
-  </si>
-  <si>
-    <t>13580808082</t>
+    <t>西安市</t>
+  </si>
+  <si>
+    <t>铁路一中</t>
+  </si>
+  <si>
+    <t>13652635263</t>
+  </si>
+  <si>
+    <t>13952635263</t>
+  </si>
+  <si>
+    <t>18030201020</t>
+  </si>
+  <si>
+    <t>029-33221122</t>
+  </si>
+  <si>
+    <t>会计与审计</t>
+  </si>
+  <si>
+    <t>陕西省西安市雁塔区太白南路电子城街道办罗曼公社B座</t>
+  </si>
+  <si>
+    <t>710000</t>
+  </si>
+  <si>
+    <t>赵子涵</t>
   </si>
 </sst>
 </file>
@@ -470,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K18" sqref="K18"/>
@@ -607,7 +652,60 @@
         <v>18</v>
       </c>
       <c r="Q3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
         <v>33</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
